--- a/Documentation/2017-07-09_Samples-for-SRM.xlsx
+++ b/Documentation/2017-07-09_Samples-for-SRM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28331"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="0" windowWidth="25240" windowHeight="15460" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="0" windowWidth="25240" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Samples for SRM" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="216">
   <si>
     <t>Round 2 "71"</t>
   </si>
@@ -657,6 +657,18 @@
   </si>
   <si>
     <t># btwn QC</t>
+  </si>
+  <si>
+    <t>114-remake</t>
+  </si>
+  <si>
+    <t>53-remake</t>
+  </si>
+  <si>
+    <t>104-remake</t>
+  </si>
+  <si>
+    <t>7/26 #4</t>
   </si>
 </sst>
 </file>
@@ -831,9 +843,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="128">
+  <cellStyleXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1188,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="128">
+  <cellStyles count="158">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -1253,6 +1295,21 @@
     <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -1316,6 +1373,21 @@
     <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1786,10 +1858,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1760" topLeftCell="A2" activePane="bottomLeft"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1760" topLeftCell="A35" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1803,7 +1874,7 @@
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="20" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="11.1640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="13" customWidth="1"/>
     <col min="13" max="13" width="11.1640625" style="23" customWidth="1"/>
     <col min="14" max="14" width="15.1640625" style="10" customWidth="1"/>
     <col min="15" max="15" width="70" style="8" customWidth="1"/>
@@ -3569,7 +3640,7 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="L34" s="15">
-        <f t="shared" ref="L34:L51" si="9">(25*15*(1/200))</f>
+        <f t="shared" ref="L34:L52" si="9">(25*15*(1/200))</f>
         <v>1.875</v>
       </c>
       <c r="M34" s="23" t="s">
@@ -4365,13 +4436,104 @@
       <c r="R51" s="2"/>
     </row>
     <row r="52" spans="1:18">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>120</v>
+      </c>
+      <c r="H52" s="6">
+        <v>96.5</v>
+      </c>
+      <c r="I52">
+        <v>1.93</v>
+      </c>
+      <c r="J52" s="20">
+        <v>3.8860103626943006</v>
+      </c>
+      <c r="K52" s="27">
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="L52" s="15">
+        <f t="shared" si="9"/>
+        <v>1.875</v>
+      </c>
+      <c r="M52" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="2"/>
     </row>
     <row r="53" spans="1:18">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>213</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>120</v>
+      </c>
+      <c r="H53" s="6">
+        <v>100</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" s="20">
+        <v>3.75</v>
+      </c>
+      <c r="K53" s="27">
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="L53" s="13">
+        <v>1.875</v>
+      </c>
+      <c r="M53" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="R53" s="1"/>
     </row>
     <row r="54" spans="1:18">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>214</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>150</v>
+      </c>
+      <c r="H54" s="6">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" s="20">
+        <v>3.75</v>
+      </c>
+      <c r="K54" s="27">
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="L54" s="13">
+        <v>1.875</v>
+      </c>
+      <c r="M54" s="23" t="s">
+        <v>215</v>
+      </c>
       <c r="R54" s="1"/>
     </row>
   </sheetData>
@@ -4886,7 +5048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -6510,7 +6672,7 @@
         <v>115</v>
       </c>
       <c r="I103" s="118">
-        <f t="shared" ref="I103:I134" si="3">COUNTA(C103:H103)</f>
+        <f t="shared" ref="I103:I115" si="3">COUNTA(C103:H103)</f>
         <v>0</v>
       </c>
     </row>
